--- a/cfs_3_0.15.xlsx
+++ b/cfs_3_0.15.xlsx
@@ -7009,7 +7009,7 @@
         <v>5</v>
       </c>
       <c r="W86" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="X86" t="n">
         <v>3</v>
@@ -7979,7 +7979,7 @@
         <v>3</v>
       </c>
       <c r="Q99" t="n">
-        <v>56.5</v>
+        <v>56</v>
       </c>
       <c r="R99" t="n">
         <v>61</v>
